--- a/data/raw/diet_JapanEastCoast.xlsx
+++ b/data/raw/diet_JapanEastCoast.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DataLAB\MBA SeafoodWatch\Data\Japan East Coast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelzuercher/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157CFAB7-A542-4036-95E4-28FA87BE5D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EF36F5-7BCE-194E-B8CE-EDFF2FFA5C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="15345" xr2:uid="{D67FBA59-C540-4B56-B040-ECEF27B600D8}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{1B86358E-9B9F-6D47-91C6-F2A9B0B2ECBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -170,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,9 +217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,39 +227,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -311,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -363,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,13 +422,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -437,6 +430,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -501,30 +501,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B770B4-B84D-4D9A-893A-1E9CFB5D232C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4CAAA-B36E-F749-A55F-F88003D3905A}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
-      <selection activeCell="AE37" sqref="AE37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AP42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -780,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -908,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2060,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2188,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2316,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2444,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2572,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2700,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2828,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2956,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3084,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3212,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3468,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3596,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3724,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3852,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4108,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4236,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4364,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4492,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4620,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4748,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4876,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5004,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5132,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5260,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5388,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5516,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5644,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
